--- a/ADs.xlsx
+++ b/ADs.xlsx
@@ -8,30 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunter Schuler\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C136BD7D-B2AA-47F1-A40D-791CDC86DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD9EB38-C22A-4708-AB0D-17D42EF36E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA875E7B-8DC3-4E54-9377-FCE90FAAEA4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ADs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$134</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$131:$F$131</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$132:$F$132</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$G$132</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$1:$G$131</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$134</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$134</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$132</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$132:$F$132</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$2:$D$131</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$131</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$132</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$2:$G$130</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$2:$G$131</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ADs!$A$1:$H$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">ADs!$A$134</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">ADs!$D$131:$F$131</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">ADs!$D$132:$F$132</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">ADs!$G$132</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">ADs!$G$1:$G$131</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">ADs!$A$134</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">ADs!$A$134</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">ADs!$D$132</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">ADs!$D$132:$F$132</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">ADs!$D$2:$D$131</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">ADs!$G$131</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">ADs!$G$132</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">ADs!$G$2:$G$130</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">ADs!$G$2:$G$131</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">ADs!$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -167,9 +167,6 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>FIU</t>
-  </si>
-  <si>
     <t>Florida State</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
     <t>Liberty</t>
   </si>
   <si>
-    <t>Louisiana–Monroe</t>
-  </si>
-  <si>
     <t>Louisiana Tech</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
     <t>Tennessee</t>
   </si>
   <si>
-    <t>Miami (FL)</t>
-  </si>
-  <si>
     <t>Miami (OH)</t>
   </si>
   <si>
@@ -341,9 +329,6 @@
     <t>San Diego State</t>
   </si>
   <si>
-    <t>San Jose State</t>
-  </si>
-  <si>
     <t>SMU</t>
   </si>
   <si>
@@ -353,9 +338,6 @@
     <t>South Florida</t>
   </si>
   <si>
-    <t>Southern Miss</t>
-  </si>
-  <si>
     <t>Stanford</t>
   </si>
   <si>
@@ -398,9 +380,6 @@
     <t>UCLA</t>
   </si>
   <si>
-    <t>UConn</t>
-  </si>
-  <si>
     <t>UMass</t>
   </si>
   <si>
@@ -413,9 +392,6 @@
     <t>UTEP</t>
   </si>
   <si>
-    <t>UTSA</t>
-  </si>
-  <si>
     <t>Utah State</t>
   </si>
   <si>
@@ -611,9 +587,6 @@
     <t>Ian McCaw</t>
   </si>
   <si>
-    <t>Louisiana-Lafayette</t>
-  </si>
-  <si>
     <t>Bryan Maggard</t>
   </si>
   <si>
@@ -1239,6 +1212,33 @@
   </si>
   <si>
     <t>Rob Alsop* (INTERIM)</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Florida Internationl</t>
+  </si>
+  <si>
+    <t>Hawai'i</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Louisiana Monroe</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>San José State</t>
+  </si>
+  <si>
+    <t>Southern Mississippi</t>
+  </si>
+  <si>
+    <t>UT San Antonio</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1415,42 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="115">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1426,6 +1461,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
@@ -1461,6 +1503,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
@@ -1475,6 +1524,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
@@ -1566,6 +1622,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
@@ -1601,7 +1664,140 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2352,8 +2548,8 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,31 +2566,31 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2402,26 +2598,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>HYPERLINK(J2,I2)</f>
         <v>nate_pine</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J2" t="str">
         <f>_xlfn.CONCAT("https://www.twitter.com/",I2)</f>
@@ -2433,29 +2629,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>HYPERLINK(J3,I3)</f>
         <v>UAkron_AD</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="0">_xlfn.CONCAT("https://www.twitter.com/",I3)</f>
+        <f t="shared" ref="J3:J67" si="0">_xlfn.CONCAT("https://www.twitter.com/",I3)</f>
         <v>https://www.twitter.com/UAkron_AD</v>
       </c>
     </row>
@@ -2464,26 +2660,26 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>HYPERLINK(J4,I4)</f>
         <v>Greg_Byrne</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
@@ -2495,26 +2691,26 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>HYPERLINK(J5,I5)</f>
         <v>DougGillin</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
@@ -2526,26 +2722,26 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>HYPERLINK(J6,I6)</f>
         <v>Dave_Heeke</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
@@ -2557,26 +2753,26 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>HYPERLINK(J7,I7)</f>
         <v>SunDevilRay23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
@@ -2588,26 +2784,26 @@
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>HYPERLINK(J8,I8)</f>
         <v>HunterYurachek</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
@@ -2619,26 +2815,26 @@
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>HYPERLINK(J9,I9)</f>
         <v>JeffPurinton</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
@@ -2650,26 +2846,26 @@
         <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>HYPERLINK(J10,I10)</f>
         <v>Buddie52</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
@@ -2681,26 +2877,26 @@
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>HYPERLINK(J11,I11)</f>
         <v>JohnCohenAD</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
@@ -2712,25 +2908,25 @@
         <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2738,26 +2934,26 @@
         <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>HYPERLINK(J13,I13)</f>
         <v>BUMackRhoades</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -2769,26 +2965,26 @@
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>HYPERLINK(J14,I14)</f>
         <v>JeramiahDickey</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
@@ -2800,26 +2996,26 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>HYPERLINK(J15,I15)</f>
         <v>BCBlakeJames</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -2831,29 +3027,29 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>HYPERLINK(J16,I16)</f>
         <v>StacyKosciak</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -2865,26 +3061,26 @@
         <v>20</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>HYPERLINK(J17,I17)</f>
         <v>Alnutt41</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -2896,26 +3092,26 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>HYPERLINK(J18,I18)</f>
         <v>TomHolmoe</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -2927,26 +3123,26 @@
         <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>HYPERLINK(J19,I19)</f>
         <v>ADCalBears</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -2958,26 +3154,26 @@
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>HYPERLINK(J20,I20)</f>
         <v>AmyFolan</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
@@ -2989,26 +3185,26 @@
         <v>26</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>HYPERLINK(J21,I21)</f>
         <v>rmikehill</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -3020,26 +3216,26 @@
         <v>27</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>HYPERLINK(J22,I22)</f>
         <v>Cunningham_UC</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -3051,26 +3247,26 @@
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>HYPERLINK(J23,I23)</f>
         <v>GrahamNeff</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -3082,22 +3278,22 @@
         <v>30</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3105,26 +3301,26 @@
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>HYPERLINK(J25,I25)</f>
         <v>RickGeorgeCU</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -3136,26 +3332,26 @@
         <v>31</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C26" s="9" t="str">
         <f>HYPERLINK(J26,I26)</f>
         <v>JoeParkerAD</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -3164,149 +3360,149 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>32</v>
+        <v>386</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>HYPERLINK(J27,I27)</f>
+        <v>UConnHuskyAD</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J27" t="str">
+        <f>_xlfn.CONCAT("https://www.twitter.com/",I27)</f>
+        <v>https://www.twitter.com/UConnHuskyAD</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f>HYPERLINK(J28,I28)</f>
         <v>ninaking22</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="J27" t="str">
+      <c r="D28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/ninaking22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f>HYPERLINK(J29,I29)</f>
+      <c r="B30" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>HYPERLINK(J30,I30)</f>
         <v>scottrwetherbee</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J29" t="str">
+      <c r="D30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/scottrwetherbee</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f>HYPERLINK(J30,I30)</f>
+      <c r="B31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>HYPERLINK(J31,I31)</f>
         <v>Brian_E_White_</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J30" t="str">
+      <c r="D31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/Brian_E_White_</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f>HYPERLINK(J31,I31)</f>
-        <v>ScottCarrAD</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.twitter.com/ScottCarrAD</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3314,26 +3510,26 @@
         <v>36</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>HYPERLINK(J32,I32)</f>
         <v>ScottStricklin</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
@@ -3342,2522 +3538,2522 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C33" s="9" t="str">
         <f>HYPERLINK(J33,I33)</f>
+        <v>ScottCarrAD</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="str">
+        <f>_xlfn.CONCAT("https://www.twitter.com/",I33)</f>
+        <v>https://www.twitter.com/ScottCarrAD</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="9" t="str">
+        <f>HYPERLINK(J34,I34)</f>
         <v>SeminoleAlford</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J33" t="str">
+      <c r="D34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/SeminoleAlford</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f>HYPERLINK(J34,I34)</f>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="9" t="str">
+        <f>HYPERLINK(J35,I35)</f>
         <v>FresnoState_AD</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J34" t="str">
+      <c r="D35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/FresnoState_AD</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>HYPERLINK(J35,I35)</f>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f>HYPERLINK(J36,I36)</f>
         <v>Brooks_UGA</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J35" t="str">
+      <c r="D36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/Brooks_UGA</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f>HYPERLINK(J36,I36)</f>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="9" t="str">
+        <f>HYPERLINK(J37,I37)</f>
         <v>JaredBenko</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J36" t="str">
+      <c r="D37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/JaredBenko</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f>HYPERLINK(J37,I37)</f>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="9" t="str">
+        <f>HYPERLINK(J38,I38)</f>
         <v>CCobbGaStateAD</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J37" t="str">
+      <c r="D38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J38" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/CCobbGaStateAD</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f>HYPERLINK(J38,I38)</f>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="9" t="str">
+        <f>HYPERLINK(J39,I39)</f>
         <v>GTToddStansbury</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J38" t="str">
+      <c r="D39" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/GTToddStansbury</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f>HYPERLINK(J39,I39)</f>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="9" t="str">
+        <f>HYPERLINK(J40,I40)</f>
         <v>DavidAKMatlin</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J39" t="str">
+      <c r="D40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/DavidAKMatlin</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f>HYPERLINK(J40,I40)</f>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="9" t="str">
+        <f>HYPERLINK(J41,I41)</f>
         <v>Cpezman</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J40" t="str">
+      <c r="D41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/Cpezman</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f>HYPERLINK(J41,I41)</f>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="9" t="str">
+        <f>HYPERLINK(J42,I42)</f>
         <v>IlliniAD</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J41" t="str">
+      <c r="D42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/IlliniAD</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>HYPERLINK(J42,I42)</f>
+      <c r="B43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="9" t="str">
+        <f>HYPERLINK(J43,I43)</f>
         <v>ScottDolson</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J42" t="str">
+      <c r="D43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/ScottDolson</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f>HYPERLINK(J43,I43)</f>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="9" t="str">
+        <f>HYPERLINK(J44,I44)</f>
         <v>GaryBarta</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H43" t="s">
-        <v>392</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J43" t="str">
+      <c r="D44" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" t="s">
+        <v>383</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/GaryBarta</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f>HYPERLINK(J44,I44)</f>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="9" t="str">
+        <f>HYPERLINK(J45,I45)</f>
         <v>IASTATEAD</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J44" t="str">
+      <c r="D45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/IASTATEAD</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f>HYPERLINK(J45,I45)</f>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="9" t="str">
+        <f>HYPERLINK(J46,I46)</f>
         <v>BourneJeff</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J45" t="str">
+      <c r="D46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/BourneJeff</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f>HYPERLINK(J46,I46)</f>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="9" t="str">
+        <f>HYPERLINK(J47,I47)</f>
         <v>tgoff11</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J46" t="str">
+      <c r="D47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J47" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/tgoff11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f>HYPERLINK(J47,I47)</f>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="9" t="str">
+        <f>HYPERLINK(J48,I48)</f>
         <v>KSTATEADGT</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J47" t="str">
+      <c r="D48" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/KSTATEADGT</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f>HYPERLINK(J48,I48)</f>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="9" t="str">
+        <f>HYPERLINK(J49,I49)</f>
         <v>RandaleRichmond</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J48" t="str">
+      <c r="D49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/RandaleRichmond</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f>HYPERLINK(J49,I49)</f>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="9" t="str">
+        <f>HYPERLINK(J50,I50)</f>
         <v>UKMitchBarnhart</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J49" t="str">
+      <c r="D50" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/UKMitchBarnhart</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f>HYPERLINK(J50,I50)</f>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="9" t="str">
+        <f>HYPERLINK(J51,I51)</f>
         <v>Ian_McCaw1</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J50" t="str">
+      <c r="D51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/Ian_McCaw1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f>HYPERLINK(J51,I51)</f>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="9" t="str">
+        <f>HYPERLINK(J52,I52)</f>
         <v>MaggardB</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J51" t="str">
+      <c r="D52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/MaggardB</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f>HYPERLINK(J53,I53)</f>
+        <v>178</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="9" t="str">
+        <f>HYPERLINK(J54,I54)</f>
         <v>EWOOD_AD</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J53" t="str">
+      <c r="D54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/EWOOD_AD</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f>HYPERLINK(J54,I54)</f>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="9" t="str">
+        <f>HYPERLINK(J55,I55)</f>
         <v>joshheird</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J54" t="str">
+      <c r="D55" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/joshheird</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f>HYPERLINK(J56,I56)</f>
+        <v>181</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="9" t="str">
+        <f>HYPERLINK(J57,I57)</f>
         <v>TheHerdAD</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J56" t="str">
+      <c r="D57" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/TheHerdAD</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f>HYPERLINK(J57,I57)</f>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="9" t="str">
+        <f>HYPERLINK(J58,I58)</f>
         <v>Evans_TerpsAD</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J57" t="str">
+      <c r="D58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J58" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/Evans_TerpsAD</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="18" t="str">
-        <f>HYPERLINK(J58,I58)</f>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="18" t="str">
+        <f>HYPERLINK(J59,I59)</f>
         <v>LairdVeatch</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H58" t="s">
-        <v>386</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="J58" t="str">
+      <c r="D59" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" t="s">
+        <v>377</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J59" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/LairdVeatch</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f>HYPERLINK(J59,I59)</f>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="9" t="str">
+        <f>HYPERLINK(J60,I60)</f>
         <v>DanRadakovich</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J59" t="str">
+      <c r="D60" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J60" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/DanRadakovich</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f>HYPERLINK(J60,I60)</f>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="9" t="str">
+        <f>HYPERLINK(J61,I61)</f>
         <v>MiamiOH_Dsayler</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J60" t="str">
+      <c r="D61" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J61" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/MiamiOH_Dsayler</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f>HYPERLINK(J61,I61)</f>
+      <c r="B62" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="9" t="str">
+        <f>HYPERLINK(J62,I62)</f>
         <v>WardeManuel</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J61" t="str">
+      <c r="D62" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J62" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/WardeManuel</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f>HYPERLINK(J62,I62)</f>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="9" t="str">
+        <f>HYPERLINK(J63,I63)</f>
         <v>AlanHaller</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J62" t="str">
+      <c r="D63" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J63" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/AlanHaller</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <f>HYPERLINK(J63,I63)</f>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="9" t="str">
+        <f>HYPERLINK(J64,I64)</f>
         <v>ChrisMassaroAD</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J63" t="str">
+      <c r="D64" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J64" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/ChrisMassaroAD</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f>HYPERLINK(J65,I65)</f>
+        <v>190</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="9" t="str">
+        <f>HYPERLINK(J66,I66)</f>
         <v>MSUcompliance</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H65" t="s">
-        <v>147</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J65" t="str">
+      <c r="D66" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" t="s">
+        <v>139</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J66" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/MSUcompliance</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f>HYPERLINK(J66,I66)</f>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="9" t="str">
+        <f>HYPERLINK(J67,I67)</f>
         <v>DRFrancois1</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J66" t="str">
+      <c r="D67" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J67" t="str">
         <f t="shared" si="0"/>
         <v>https://www.twitter.com/DRFrancois1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f t="shared" ref="C68:C81" si="1">HYPERLINK(J68,I68)</f>
-        <v>BooCorrigan</v>
+        <v>193</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" ref="J68:J130" si="2">_xlfn.CONCAT("https://www.twitter.com/",I68)</f>
-        <v>https://www.twitter.com/BooCorrigan</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C69" s="9" t="str">
+        <f t="shared" ref="C69:C82" si="1">HYPERLINK(J69,I69)</f>
+        <v>BooCorrigan</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" ref="J69:J130" si="2">_xlfn.CONCAT("https://www.twitter.com/",I69)</f>
+        <v>https://www.twitter.com/BooCorrigan</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>TrevAlberts</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J69" t="str">
+      <c r="D70" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J70" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/TrevAlberts</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="9" t="str">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Stephanie_Rempe</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J70" t="str">
+      <c r="D71" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J71" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/Stephanie_Rempe</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C71" s="9" t="str">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>EddieNunezAD</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J71" t="str">
+      <c r="D72" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J72" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/EddieNunezAD</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="9" t="str">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>MarioMocciaNMSU</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J72" t="str">
+      <c r="D73" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J73" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/MarioMocciaNMSU</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73" s="9" t="str">
+      <c r="B74" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>BubbaUNC</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J73" t="str">
+      <c r="D74" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J74" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/BubbaUNC</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="9" t="str">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="9" t="str">
         <f t="shared" si="1"/>
         <v>wrenbaker</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J74" t="str">
+      <c r="D75" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J75" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/wrenbaker</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="9" t="str">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="9" t="str">
         <f t="shared" si="1"/>
         <v>SeanTFrazier</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J75" t="str">
+      <c r="D76" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J76" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/SeanTFrazier</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="9" t="str">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="9" t="str">
         <f t="shared" si="1"/>
         <v>DrDerrickGragg</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J76" t="str">
+      <c r="D77" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J77" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/DrDerrickGragg</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="9" t="str">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="9" t="str">
         <f t="shared" si="1"/>
         <v>NotreDameAD</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J77" t="str">
+      <c r="D78" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J78" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/NotreDameAD</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="9" t="str">
+      <c r="B79" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="9" t="str">
         <f t="shared" si="1"/>
         <v>juliecromerOHIO</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J78" t="str">
+      <c r="D79" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J79" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/juliecromerOHIO</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="9" t="str">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="9" t="str">
         <f t="shared" si="1"/>
         <v>OSU_AD</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J79" t="str">
+      <c r="D80" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J80" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/OSU_AD</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="9" t="str">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="9" t="str">
         <f t="shared" si="1"/>
         <v>soonerad</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J80" t="str">
+      <c r="D81" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J81" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/soonerad</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="9" t="str">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ChadWeiberg</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J81" t="str">
+      <c r="D82" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J82" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/ChadWeiberg</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="9" t="str">
-        <f>HYPERLINK(J83,I83)</f>
+        <v>208</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="9" t="str">
+        <f>HYPERLINK(J84,I84)</f>
         <v>KeithCarterOM</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J83" t="str">
+      <c r="D84" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J84" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/KeithCarterOM</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="9" t="str">
-        <f>HYPERLINK(J85,I85)</f>
+        <v>210</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="9" t="str">
+        <f>HYPERLINK(J86,I86)</f>
         <v>BeaverAD</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J85" t="str">
+      <c r="D86" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J86" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/BeaverAD</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C87" s="9" t="str">
-        <f t="shared" ref="C87:C109" si="3">HYPERLINK(J87,I87)</f>
+        <v>212</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C88" s="9" t="str">
+        <f t="shared" ref="C88:C110" si="3">HYPERLINK(J88,I88)</f>
         <v>Pitt_LykeAD</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J87" t="str">
+      <c r="D88" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J88" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/Pitt_LykeAD</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="9" t="str">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="9" t="str">
         <f t="shared" si="3"/>
         <v>MikeBobinski</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J88" t="str">
+      <c r="D89" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J89" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/MikeBobinski</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C89" s="9" t="str">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jkarlgaard</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J89" t="str">
+      <c r="D90" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J90" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/jkarlgaard</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C90" s="9" t="str">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PatHobbsRU</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J90" t="str">
+      <c r="D91" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J91" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/PatHobbsRU</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C91" s="9" t="str">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jdwicker</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J91" t="str">
+      <c r="D92" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J92" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/jdwicker</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C92" s="9" t="str">
-        <f>HYPERLINK(J92,I92)</f>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="9" t="str">
+        <f>HYPERLINK(J93,I93)</f>
         <v>adriverhawks</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J92" t="str">
+      <c r="D93" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J93" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/adriverhawks</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="9" t="str">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="9" t="str">
         <f t="shared" si="3"/>
         <v>AD_RickHart</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J93" t="str">
+      <c r="D94" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J94" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/AD_RickHart</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C94" s="9" t="str">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="9" t="str">
         <f t="shared" si="3"/>
         <v>SouthAlabamaAD</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J94" t="str">
+      <c r="D95" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J95" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/SouthAlabamaAD</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C95" s="9" t="str">
+      <c r="B96" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="9" t="str">
         <f t="shared" si="3"/>
         <v>RayTannerSC</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="J95" t="str">
+      <c r="D96" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J96" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/RayTannerSC</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="9" t="str">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="9" t="str">
         <f t="shared" si="3"/>
         <v>MKellyUSF</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J96" t="str">
+      <c r="D97" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J97" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/MKellyUSF</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C97" s="9" t="str">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" s="9" t="str">
         <f t="shared" si="3"/>
         <v>jmcclain_USM</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J97" t="str">
+      <c r="D98" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J98" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/jmcclain_USM</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C98" s="9" t="str">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Stanford_AD</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J98" t="str">
+      <c r="D99" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J99" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/Stanford_AD</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C99" s="9" t="str">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="9" t="str">
         <f t="shared" si="3"/>
         <v>WildhackJ</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J99" t="str">
+      <c r="D100" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J100" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/WildhackJ</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C100" s="9" t="str">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Jdonati_TCU</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J100" t="str">
+      <c r="D101" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J101" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/Jdonati_TCU</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C101" s="9" t="str">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="9" t="str">
         <f t="shared" si="3"/>
         <v>TempleOwls_AD</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J101" t="str">
+      <c r="D102" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J102" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/TempleOwls_AD</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" s="9" t="str">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" s="9" t="str">
         <f t="shared" si="3"/>
         <v>AD_DannyWhite</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J102" t="str">
+      <c r="D103" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J103" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/AD_DannyWhite</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C103" s="9" t="str">
+      <c r="B104" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="9" t="str">
         <f t="shared" si="3"/>
         <v>_delconte</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J103" t="str">
+      <c r="D104" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J104" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/_delconte</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C104" s="9" t="str">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="9" t="str">
         <f t="shared" si="3"/>
         <v>RossBjorkAD</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J104" t="str">
+      <c r="D105" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J105" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/RossBjorkAD</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C105" s="9" t="str">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="9" t="str">
         <f t="shared" si="3"/>
         <v>DonCoryell</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J105" t="str">
+      <c r="D106" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J106" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/DonCoryell</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C106" s="9" t="str">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="9" t="str">
         <f t="shared" si="3"/>
         <v>kirbyhocutt</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J106" t="str">
+      <c r="D107" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J107" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/kirbyhocutt</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C107" s="9" t="str">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="9" t="str">
         <f t="shared" si="3"/>
         <v>BtotheBlair</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J107" t="str">
+      <c r="D108" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J108" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/BtotheBlair</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" s="9" t="str">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" s="9" t="str">
         <f t="shared" si="3"/>
         <v>brentjones4</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J108" t="str">
+      <c r="D109" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J109" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/brentjones4</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C109" s="9" t="str">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Tulane_AD</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J109" t="str">
+      <c r="D110" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J110" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/Tulane_AD</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C111" s="9" t="str">
-        <f t="shared" ref="C111:C117" si="4">HYPERLINK(J111,I111)</f>
+        <v>238</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="9" t="str">
+        <f t="shared" ref="C112:C117" si="4">HYPERLINK(J112,I112)</f>
         <v>UAB_AD</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J111" t="str">
+      <c r="D112" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J112" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/UAB_AD</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C112" s="9" t="str">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" s="9" t="str">
         <f t="shared" si="4"/>
         <v>TerryMohajirAD</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J112" t="str">
+      <c r="D113" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J113" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/TerryMohajirAD</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C113" s="9" t="str">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="9" t="str">
         <f t="shared" si="4"/>
         <v>MartinJarmond</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J113" t="str">
+      <c r="D114" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J114" t="str">
         <f t="shared" si="2"/>
         <v>https://www.twitter.com/MartinJarmond</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C114" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>UConnHuskyAD</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J114" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.twitter.com/UConnHuskyAD</v>
-      </c>
-    </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C115" s="9" t="str">
         <f t="shared" si="4"/>
         <v>UMassADBamford</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="J115" t="str">
         <f t="shared" si="2"/>
@@ -5866,29 +6062,29 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C116" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ErickHarper</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J116" t="str">
         <f t="shared" si="2"/>
@@ -5897,29 +6093,29 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C117" s="9" t="str">
         <f t="shared" si="4"/>
         <v>USC_mikebohn</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="J117" t="str">
         <f t="shared" si="2"/>
@@ -5928,56 +6124,56 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>118</v>
+        <v>394</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>152</v>
+        <v>247</v>
+      </c>
+      <c r="C118" s="9" t="str">
+        <f>HYPERLINK(J118,I118)</f>
+        <v>LisaUTSA</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>152</v>
+        <v>126</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J118" t="str">
+        <f>_xlfn.CONCAT("https://www.twitter.com/",I118)</f>
+        <v>https://www.twitter.com/LisaUTSA</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C119" s="9" t="str">
-        <f>HYPERLINK(J119,I119)</f>
-        <v>LisaUTSA</v>
+        <v>246</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J119" t="str">
-        <f t="shared" si="2"/>
-        <v>https://www.twitter.com/LisaUTSA</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -5985,26 +6181,26 @@
         <v>22</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C120" s="9" t="str">
         <f>HYPERLINK(J120,I120)</f>
         <v>MarkHarlan_AD</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J120" t="str">
         <f t="shared" si="2"/>
@@ -6013,32 +6209,32 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C121" s="9" t="str">
         <f>HYPERLINK(J121,I121)</f>
         <v>JerryBovee</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="J121" t="str">
         <f t="shared" si="2"/>
@@ -6047,29 +6243,29 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C122" s="9" t="str">
         <f>HYPERLINK(J122,I122)</f>
         <v>VandyAD</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="J122" t="str">
         <f t="shared" si="2"/>
@@ -6078,29 +6274,29 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C123" s="9" t="str">
         <f>HYPERLINK(J123,I123)</f>
         <v>ADWilliamsUVA</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J123" t="str">
         <f t="shared" si="2"/>
@@ -6109,29 +6305,29 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C124" s="9" t="str">
         <f>HYPERLINK(J124,I124)</f>
         <v>WhitBabcock</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" si="2"/>
@@ -6140,29 +6336,29 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C125" s="9" t="str">
         <f>HYPERLINK(J125,I125)</f>
         <v>John_Curie</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="2"/>
@@ -6171,29 +6367,29 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C126" s="9" t="str">
         <f>HYPERLINK(J126,I126)</f>
         <v>JenniferCohenUW</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J126" t="str">
         <f t="shared" si="2"/>
@@ -6202,29 +6398,29 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C127" s="9" t="str">
         <f>HYPERLINK(J127,I127)</f>
         <v>pat_chun</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="J127" t="str">
         <f t="shared" si="2"/>
@@ -6233,29 +6429,29 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C128" s="9" t="str">
         <f>HYPERLINK(J128,I128)</f>
         <v>WVUADLyons</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="J128" t="str">
         <f t="shared" si="2"/>
@@ -6264,29 +6460,29 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C129" s="9" t="str">
         <f>HYPERLINK(J129,I129)</f>
         <v>ToddStewartWKU</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="J129" t="str">
         <f t="shared" si="2"/>
@@ -6295,32 +6491,32 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C130" s="9" t="str">
         <f>HYPERLINK(J130,I130)</f>
         <v>jrobalsop</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H130" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="J130" t="str">
         <f t="shared" si="2"/>
@@ -6329,52 +6525,52 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C132" s="14" t="str">
         <f>HYPERLINK(J132,I132)</f>
         <v>TomBurman1</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J132" t="str">
         <f t="shared" ref="J132" si="5">_xlfn.CONCAT("https://www.twitter.com/",I132)</f>
@@ -6383,27 +6579,119 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{1DEBB5B0-CD8C-40E0-BB68-C1CB51FCAC79}"/>
-  <conditionalFormatting sqref="A2:G132">
-    <cfRule type="expression" dxfId="26" priority="39">
+  <conditionalFormatting sqref="A118:G118">
+    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
+      <formula>$H250="INTERIM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$D118="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+      <formula>AND($E118="Yes",$D118="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
+      <formula>AND($F118="Yes",$E118="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="37" stopIfTrue="1">
+      <formula>AND($G118="Yes",$F118="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="38">
+      <formula>$C250="NO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="39">
+      <formula>$G118="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:G119 A34:G114 A28:G31">
+    <cfRule type="expression" dxfId="27" priority="103" stopIfTrue="1">
+      <formula>$H158="INTERIM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="104">
+      <formula>$D28="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="105" stopIfTrue="1">
+      <formula>AND($E28="Yes",$D28="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="106" stopIfTrue="1">
+      <formula>AND($F28="Yes",$E28="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="107" stopIfTrue="1">
+      <formula>AND($G28="Yes",$F28="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="108">
+      <formula>$C158="NO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="109">
+      <formula>$G28="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:G132 A32:G32 A115:G117 A2:G26">
+    <cfRule type="expression" dxfId="20" priority="124" stopIfTrue="1">
+      <formula>$H133="INTERIM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="125">
+      <formula>$D2="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="126" stopIfTrue="1">
+      <formula>AND($E2="Yes",$D2="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="127" stopIfTrue="1">
+      <formula>AND($F2="Yes",$E2="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="128" stopIfTrue="1">
+      <formula>AND($G2="Yes",$F2="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="129">
+      <formula>$C133="NO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="130">
       <formula>$G2="NO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="33" stopIfTrue="1">
-      <formula>$H133="INTERIM"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:G33">
+    <cfRule type="expression" dxfId="13" priority="201" stopIfTrue="1">
+      <formula>$H162="INTERIM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="34">
-      <formula>$D2="Yes"</formula>
+    <cfRule type="expression" dxfId="12" priority="202">
+      <formula>$D33="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="35" stopIfTrue="1">
-      <formula>AND($E2="Yes",$D2="No")</formula>
+    <cfRule type="expression" dxfId="11" priority="203" stopIfTrue="1">
+      <formula>AND($E33="Yes",$D33="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="36" stopIfTrue="1">
-      <formula>AND($F2="Yes",$E2="No")</formula>
+    <cfRule type="expression" dxfId="10" priority="204" stopIfTrue="1">
+      <formula>AND($F33="Yes",$E33="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
-      <formula>AND($G2="Yes",$F2="No")</formula>
+    <cfRule type="expression" dxfId="9" priority="205" stopIfTrue="1">
+      <formula>AND($G33="Yes",$F33="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="38">
-      <formula>$C133="NO"</formula>
+    <cfRule type="expression" dxfId="8" priority="206">
+      <formula>$C162="NO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="207">
+      <formula>$G33="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:G27">
+    <cfRule type="expression" dxfId="6" priority="208" stopIfTrue="1">
+      <formula>$H245="INTERIM"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="209">
+      <formula>$D27="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="210" stopIfTrue="1">
+      <formula>AND($E27="Yes",$D27="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="211" stopIfTrue="1">
+      <formula>AND($F27="Yes",$E27="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="212" stopIfTrue="1">
+      <formula>AND($G27="Yes",$F27="No")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="213">
+      <formula>$C245="NO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="214">
+      <formula>$G27="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ADs.xlsx
+++ b/ADs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunter Schuler\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD9EB38-C22A-4708-AB0D-17D42EF36E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87210922-D02F-491C-A95C-B3022B61802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA875E7B-8DC3-4E54-9377-FCE90FAAEA4C}"/>
   </bookViews>
@@ -17,21 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ADs!$A$1:$H$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">ADs!$A$134</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ADs!$D$131:$F$131</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">ADs!$D$132:$F$132</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">ADs!$G$132</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">ADs!$G$1:$G$131</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">ADs!$A$134</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">ADs!$A$134</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ADs!$D$132</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ADs!$D$132:$F$132</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">ADs!$D$2:$D$131</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">ADs!$G$131</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">ADs!$G$132</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">ADs!$G$2:$G$130</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">ADs!$G$2:$G$131</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">ADs!$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1217,9 +1202,6 @@
     <t>Connecticut</t>
   </si>
   <si>
-    <t>Florida Internationl</t>
-  </si>
-  <si>
     <t>Hawai'i</t>
   </si>
   <si>
@@ -1239,6 +1221,9 @@
   </si>
   <si>
     <t>UT San Antonio</t>
+  </si>
+  <si>
+    <t>Florida International</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1400,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -1567,566 +1552,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2548,8 +1973,8 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD118"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,7 +2026,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f>HYPERLINK(J2,I2)</f>
+        <f t="shared" ref="C2:C11" si="0">HYPERLINK(J2,I2)</f>
         <v>nate_pine</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2632,7 +2057,7 @@
         <v>127</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f>HYPERLINK(J3,I3)</f>
+        <f t="shared" si="0"/>
         <v>UAkron_AD</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -2651,7 +2076,7 @@
         <v>260</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J67" si="0">_xlfn.CONCAT("https://www.twitter.com/",I3)</f>
+        <f t="shared" ref="J3:J67" si="1">_xlfn.CONCAT("https://www.twitter.com/",I3)</f>
         <v>https://www.twitter.com/UAkron_AD</v>
       </c>
     </row>
@@ -2663,7 +2088,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f>HYPERLINK(J4,I4)</f>
+        <f t="shared" si="0"/>
         <v>Greg_Byrne</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -2682,7 +2107,7 @@
         <v>261</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Greg_Byrne</v>
       </c>
     </row>
@@ -2694,7 +2119,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f>HYPERLINK(J5,I5)</f>
+        <f t="shared" si="0"/>
         <v>DougGillin</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -2713,7 +2138,7 @@
         <v>262</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/DougGillin</v>
       </c>
     </row>
@@ -2725,7 +2150,7 @@
         <v>131</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>HYPERLINK(J6,I6)</f>
+        <f t="shared" si="0"/>
         <v>Dave_Heeke</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2744,7 +2169,7 @@
         <v>263</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Dave_Heeke</v>
       </c>
     </row>
@@ -2756,7 +2181,7 @@
         <v>132</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>HYPERLINK(J7,I7)</f>
+        <f t="shared" si="0"/>
         <v>SunDevilRay23</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2775,7 +2200,7 @@
         <v>264</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/SunDevilRay23</v>
       </c>
     </row>
@@ -2787,7 +2212,7 @@
         <v>133</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>HYPERLINK(J8,I8)</f>
+        <f t="shared" si="0"/>
         <v>HunterYurachek</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2806,7 +2231,7 @@
         <v>265</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/HunterYurachek</v>
       </c>
     </row>
@@ -2818,7 +2243,7 @@
         <v>134</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>HYPERLINK(J9,I9)</f>
+        <f t="shared" si="0"/>
         <v>JeffPurinton</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2837,7 +2262,7 @@
         <v>266</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/JeffPurinton</v>
       </c>
     </row>
@@ -2849,7 +2274,7 @@
         <v>135</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>HYPERLINK(J10,I10)</f>
+        <f t="shared" si="0"/>
         <v>Buddie52</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2868,7 +2293,7 @@
         <v>267</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Buddie52</v>
       </c>
     </row>
@@ -2880,7 +2305,7 @@
         <v>191</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>HYPERLINK(J11,I11)</f>
+        <f t="shared" si="0"/>
         <v>JohnCohenAD</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2899,7 +2324,7 @@
         <v>268</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/JohnCohenAD</v>
       </c>
     </row>
@@ -2937,7 +2362,7 @@
         <v>137</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>HYPERLINK(J13,I13)</f>
+        <f t="shared" ref="C13:C23" si="2">HYPERLINK(J13,I13)</f>
         <v>BUMackRhoades</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2956,7 +2381,7 @@
         <v>269</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/BUMackRhoades</v>
       </c>
     </row>
@@ -2968,7 +2393,7 @@
         <v>138</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>HYPERLINK(J14,I14)</f>
+        <f t="shared" si="2"/>
         <v>JeramiahDickey</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2987,7 +2412,7 @@
         <v>270</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/JeramiahDickey</v>
       </c>
     </row>
@@ -2999,7 +2424,7 @@
         <v>141</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>HYPERLINK(J15,I15)</f>
+        <f t="shared" si="2"/>
         <v>BCBlakeJames</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -3018,7 +2443,7 @@
         <v>271</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/BCBlakeJames</v>
       </c>
     </row>
@@ -3030,7 +2455,7 @@
         <v>376</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>HYPERLINK(J16,I16)</f>
+        <f t="shared" si="2"/>
         <v>StacyKosciak</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -3052,7 +2477,7 @@
         <v>375</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/StacyKosciak</v>
       </c>
     </row>
@@ -3064,7 +2489,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>HYPERLINK(J17,I17)</f>
+        <f t="shared" si="2"/>
         <v>Alnutt41</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3083,7 +2508,7 @@
         <v>272</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Alnutt41</v>
       </c>
     </row>
@@ -3095,7 +2520,7 @@
         <v>143</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>HYPERLINK(J18,I18)</f>
+        <f t="shared" si="2"/>
         <v>TomHolmoe</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -3114,7 +2539,7 @@
         <v>273</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/TomHolmoe</v>
       </c>
     </row>
@@ -3126,7 +2551,7 @@
         <v>145</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>HYPERLINK(J19,I19)</f>
+        <f t="shared" si="2"/>
         <v>ADCalBears</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -3145,7 +2570,7 @@
         <v>274</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/ADCalBears</v>
       </c>
     </row>
@@ -3157,7 +2582,7 @@
         <v>146</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>HYPERLINK(J20,I20)</f>
+        <f t="shared" si="2"/>
         <v>AmyFolan</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3176,7 +2601,7 @@
         <v>275</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/AmyFolan</v>
       </c>
     </row>
@@ -3188,7 +2613,7 @@
         <v>147</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>HYPERLINK(J21,I21)</f>
+        <f t="shared" si="2"/>
         <v>rmikehill</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3207,7 +2632,7 @@
         <v>276</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/rmikehill</v>
       </c>
     </row>
@@ -3219,7 +2644,7 @@
         <v>148</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>HYPERLINK(J22,I22)</f>
+        <f t="shared" si="2"/>
         <v>Cunningham_UC</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3238,7 +2663,7 @@
         <v>277</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Cunningham_UC</v>
       </c>
     </row>
@@ -3250,7 +2675,7 @@
         <v>149</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>HYPERLINK(J23,I23)</f>
+        <f t="shared" si="2"/>
         <v>GrahamNeff</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3269,7 +2694,7 @@
         <v>278</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/GrahamNeff</v>
       </c>
     </row>
@@ -3323,7 +2748,7 @@
         <v>279</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/RickGeorgeCU</v>
       </c>
     </row>
@@ -3354,7 +2779,7 @@
         <v>280</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/JoeParkerAD</v>
       </c>
     </row>
@@ -3416,7 +2841,7 @@
         <v>281</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/ninaking22</v>
       </c>
     </row>
@@ -3451,7 +2876,7 @@
         <v>155</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>HYPERLINK(J30,I30)</f>
+        <f t="shared" ref="C30:C52" si="3">HYPERLINK(J30,I30)</f>
         <v>scottrwetherbee</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -3470,7 +2895,7 @@
         <v>282</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/scottrwetherbee</v>
       </c>
     </row>
@@ -3482,7 +2907,7 @@
         <v>156</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>HYPERLINK(J31,I31)</f>
+        <f t="shared" si="3"/>
         <v>Brian_E_White_</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -3501,7 +2926,7 @@
         <v>283</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Brian_E_White_</v>
       </c>
     </row>
@@ -3513,7 +2938,7 @@
         <v>158</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>HYPERLINK(J32,I32)</f>
+        <f t="shared" si="3"/>
         <v>ScottStricklin</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -3532,19 +2957,19 @@
         <v>285</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/ScottStricklin</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>HYPERLINK(J33,I33)</f>
+        <f t="shared" si="3"/>
         <v>ScottCarrAD</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -3575,7 +3000,7 @@
         <v>159</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>HYPERLINK(J34,I34)</f>
+        <f t="shared" si="3"/>
         <v>SeminoleAlford</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -3594,7 +3019,7 @@
         <v>286</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/SeminoleAlford</v>
       </c>
     </row>
@@ -3606,7 +3031,7 @@
         <v>160</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>HYPERLINK(J35,I35)</f>
+        <f t="shared" si="3"/>
         <v>FresnoState_AD</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -3625,7 +3050,7 @@
         <v>287</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/FresnoState_AD</v>
       </c>
     </row>
@@ -3637,7 +3062,7 @@
         <v>161</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>HYPERLINK(J36,I36)</f>
+        <f t="shared" si="3"/>
         <v>Brooks_UGA</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -3656,7 +3081,7 @@
         <v>288</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Brooks_UGA</v>
       </c>
     </row>
@@ -3668,7 +3093,7 @@
         <v>162</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>HYPERLINK(J37,I37)</f>
+        <f t="shared" si="3"/>
         <v>JaredBenko</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3687,7 +3112,7 @@
         <v>289</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/JaredBenko</v>
       </c>
     </row>
@@ -3699,7 +3124,7 @@
         <v>163</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>HYPERLINK(J38,I38)</f>
+        <f t="shared" si="3"/>
         <v>CCobbGaStateAD</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -3718,7 +3143,7 @@
         <v>290</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/CCobbGaStateAD</v>
       </c>
     </row>
@@ -3730,7 +3155,7 @@
         <v>164</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>HYPERLINK(J39,I39)</f>
+        <f t="shared" si="3"/>
         <v>GTToddStansbury</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -3749,19 +3174,19 @@
         <v>291</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/GTToddStansbury</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>HYPERLINK(J40,I40)</f>
+        <f t="shared" si="3"/>
         <v>DavidAKMatlin</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -3780,7 +3205,7 @@
         <v>292</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/DavidAKMatlin</v>
       </c>
     </row>
@@ -3792,7 +3217,7 @@
         <v>166</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>HYPERLINK(J41,I41)</f>
+        <f t="shared" si="3"/>
         <v>Cpezman</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3811,7 +3236,7 @@
         <v>293</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Cpezman</v>
       </c>
     </row>
@@ -3823,7 +3248,7 @@
         <v>167</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>HYPERLINK(J42,I42)</f>
+        <f t="shared" si="3"/>
         <v>IlliniAD</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3842,7 +3267,7 @@
         <v>294</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/IlliniAD</v>
       </c>
     </row>
@@ -3854,7 +3279,7 @@
         <v>168</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>HYPERLINK(J43,I43)</f>
+        <f t="shared" si="3"/>
         <v>ScottDolson</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -3873,7 +3298,7 @@
         <v>295</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/ScottDolson</v>
       </c>
     </row>
@@ -3885,7 +3310,7 @@
         <v>169</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>HYPERLINK(J44,I44)</f>
+        <f t="shared" si="3"/>
         <v>GaryBarta</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -3907,7 +3332,7 @@
         <v>382</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/GaryBarta</v>
       </c>
     </row>
@@ -3919,7 +3344,7 @@
         <v>170</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>HYPERLINK(J45,I45)</f>
+        <f t="shared" si="3"/>
         <v>IASTATEAD</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -3938,7 +3363,7 @@
         <v>296</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/IASTATEAD</v>
       </c>
     </row>
@@ -3950,7 +3375,7 @@
         <v>171</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>HYPERLINK(J46,I46)</f>
+        <f t="shared" si="3"/>
         <v>BourneJeff</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -3969,7 +3394,7 @@
         <v>297</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/BourneJeff</v>
       </c>
     </row>
@@ -3981,7 +3406,7 @@
         <v>172</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>HYPERLINK(J47,I47)</f>
+        <f t="shared" si="3"/>
         <v>tgoff11</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -4000,7 +3425,7 @@
         <v>298</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/tgoff11</v>
       </c>
     </row>
@@ -4012,7 +3437,7 @@
         <v>173</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>HYPERLINK(J48,I48)</f>
+        <f t="shared" si="3"/>
         <v>KSTATEADGT</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -4031,7 +3456,7 @@
         <v>299</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/KSTATEADGT</v>
       </c>
     </row>
@@ -4043,7 +3468,7 @@
         <v>174</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>HYPERLINK(J49,I49)</f>
+        <f t="shared" si="3"/>
         <v>RandaleRichmond</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -4062,7 +3487,7 @@
         <v>300</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/RandaleRichmond</v>
       </c>
     </row>
@@ -4074,7 +3499,7 @@
         <v>175</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>HYPERLINK(J50,I50)</f>
+        <f t="shared" si="3"/>
         <v>UKMitchBarnhart</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -4093,7 +3518,7 @@
         <v>301</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/UKMitchBarnhart</v>
       </c>
     </row>
@@ -4105,7 +3530,7 @@
         <v>176</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>HYPERLINK(J51,I51)</f>
+        <f t="shared" si="3"/>
         <v>Ian_McCaw1</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -4124,19 +3549,19 @@
         <v>302</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Ian_McCaw1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>HYPERLINK(J52,I52)</f>
+        <f t="shared" si="3"/>
         <v>MaggardB</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -4155,13 +3580,13 @@
         <v>303</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/MaggardB</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>178</v>
@@ -4212,7 +3637,7 @@
         <v>304</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/EWOOD_AD</v>
       </c>
     </row>
@@ -4243,7 +3668,7 @@
         <v>305</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/joshheird</v>
       </c>
     </row>
@@ -4278,7 +3703,7 @@
         <v>182</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>HYPERLINK(J57,I57)</f>
+        <f t="shared" ref="C57:C64" si="4">HYPERLINK(J57,I57)</f>
         <v>TheHerdAD</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -4297,7 +3722,7 @@
         <v>306</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/TheHerdAD</v>
       </c>
     </row>
@@ -4309,7 +3734,7 @@
         <v>183</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>HYPERLINK(J58,I58)</f>
+        <f t="shared" si="4"/>
         <v>Evans_TerpsAD</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -4328,7 +3753,7 @@
         <v>307</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/Evans_TerpsAD</v>
       </c>
     </row>
@@ -4340,7 +3765,7 @@
         <v>184</v>
       </c>
       <c r="C59" s="18" t="str">
-        <f>HYPERLINK(J59,I59)</f>
+        <f t="shared" si="4"/>
         <v>LairdVeatch</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -4362,19 +3787,19 @@
         <v>308</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/LairdVeatch</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>HYPERLINK(J60,I60)</f>
+        <f t="shared" si="4"/>
         <v>DanRadakovich</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -4393,7 +3818,7 @@
         <v>309</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/DanRadakovich</v>
       </c>
     </row>
@@ -4405,7 +3830,7 @@
         <v>186</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>HYPERLINK(J61,I61)</f>
+        <f t="shared" si="4"/>
         <v>MiamiOH_Dsayler</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -4424,7 +3849,7 @@
         <v>310</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/MiamiOH_Dsayler</v>
       </c>
     </row>
@@ -4436,7 +3861,7 @@
         <v>187</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>HYPERLINK(J62,I62)</f>
+        <f t="shared" si="4"/>
         <v>WardeManuel</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -4455,7 +3880,7 @@
         <v>311</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/WardeManuel</v>
       </c>
     </row>
@@ -4467,7 +3892,7 @@
         <v>188</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>HYPERLINK(J63,I63)</f>
+        <f t="shared" si="4"/>
         <v>AlanHaller</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -4486,7 +3911,7 @@
         <v>312</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/AlanHaller</v>
       </c>
     </row>
@@ -4498,7 +3923,7 @@
         <v>189</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>HYPERLINK(J64,I64)</f>
+        <f t="shared" si="4"/>
         <v>ChrisMassaroAD</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -4517,7 +3942,7 @@
         <v>313</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/ChrisMassaroAD</v>
       </c>
     </row>
@@ -4574,7 +3999,7 @@
         <v>314</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/MSUcompliance</v>
       </c>
     </row>
@@ -4605,7 +4030,7 @@
         <v>315</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://www.twitter.com/DRFrancois1</v>
       </c>
     </row>
@@ -4640,7 +4065,7 @@
         <v>194</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f t="shared" ref="C69:C82" si="1">HYPERLINK(J69,I69)</f>
+        <f t="shared" ref="C69:C82" si="5">HYPERLINK(J69,I69)</f>
         <v>BooCorrigan</v>
       </c>
       <c r="D69" s="8" t="s">
@@ -4659,7 +4084,7 @@
         <v>316</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" ref="J69:J130" si="2">_xlfn.CONCAT("https://www.twitter.com/",I69)</f>
+        <f t="shared" ref="J69:J130" si="6">_xlfn.CONCAT("https://www.twitter.com/",I69)</f>
         <v>https://www.twitter.com/BooCorrigan</v>
       </c>
     </row>
@@ -4671,7 +4096,7 @@
         <v>195</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>TrevAlberts</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -4690,7 +4115,7 @@
         <v>317</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/TrevAlberts</v>
       </c>
     </row>
@@ -4702,7 +4127,7 @@
         <v>196</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Stephanie_Rempe</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -4721,7 +4146,7 @@
         <v>318</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/Stephanie_Rempe</v>
       </c>
     </row>
@@ -4733,7 +4158,7 @@
         <v>197</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>EddieNunezAD</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -4752,7 +4177,7 @@
         <v>319</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/EddieNunezAD</v>
       </c>
     </row>
@@ -4764,7 +4189,7 @@
         <v>198</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>MarioMocciaNMSU</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -4783,7 +4208,7 @@
         <v>320</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/MarioMocciaNMSU</v>
       </c>
     </row>
@@ -4795,7 +4220,7 @@
         <v>199</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>BubbaUNC</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -4814,7 +4239,7 @@
         <v>321</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/BubbaUNC</v>
       </c>
     </row>
@@ -4826,7 +4251,7 @@
         <v>200</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>wrenbaker</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -4845,7 +4270,7 @@
         <v>322</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/wrenbaker</v>
       </c>
     </row>
@@ -4857,7 +4282,7 @@
         <v>201</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>SeanTFrazier</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -4876,7 +4301,7 @@
         <v>323</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/SeanTFrazier</v>
       </c>
     </row>
@@ -4888,7 +4313,7 @@
         <v>202</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>DrDerrickGragg</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -4907,7 +4332,7 @@
         <v>324</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/DrDerrickGragg</v>
       </c>
     </row>
@@ -4919,7 +4344,7 @@
         <v>203</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>NotreDameAD</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -4938,7 +4363,7 @@
         <v>325</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/NotreDameAD</v>
       </c>
     </row>
@@ -4950,7 +4375,7 @@
         <v>204</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>juliecromerOHIO</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -4969,7 +4394,7 @@
         <v>326</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/juliecromerOHIO</v>
       </c>
     </row>
@@ -4981,7 +4406,7 @@
         <v>205</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>OSU_AD</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -5000,7 +4425,7 @@
         <v>327</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/OSU_AD</v>
       </c>
     </row>
@@ -5012,7 +4437,7 @@
         <v>206</v>
       </c>
       <c r="C81" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>soonerad</v>
       </c>
       <c r="D81" s="8" t="s">
@@ -5031,7 +4456,7 @@
         <v>328</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/soonerad</v>
       </c>
     </row>
@@ -5043,7 +4468,7 @@
         <v>207</v>
       </c>
       <c r="C82" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>ChadWeiberg</v>
       </c>
       <c r="D82" s="8" t="s">
@@ -5062,7 +4487,7 @@
         <v>329</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/ChadWeiberg</v>
       </c>
     </row>
@@ -5116,7 +4541,7 @@
         <v>330</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/KeithCarterOM</v>
       </c>
     </row>
@@ -5170,7 +4595,7 @@
         <v>331</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/BeaverAD</v>
       </c>
     </row>
@@ -5205,7 +4630,7 @@
         <v>213</v>
       </c>
       <c r="C88" s="9" t="str">
-        <f t="shared" ref="C88:C110" si="3">HYPERLINK(J88,I88)</f>
+        <f t="shared" ref="C88:C110" si="7">HYPERLINK(J88,I88)</f>
         <v>Pitt_LykeAD</v>
       </c>
       <c r="D88" s="8" t="s">
@@ -5224,7 +4649,7 @@
         <v>332</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/Pitt_LykeAD</v>
       </c>
     </row>
@@ -5236,7 +4661,7 @@
         <v>214</v>
       </c>
       <c r="C89" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>MikeBobinski</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -5255,7 +4680,7 @@
         <v>333</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/MikeBobinski</v>
       </c>
     </row>
@@ -5267,7 +4692,7 @@
         <v>215</v>
       </c>
       <c r="C90" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>jkarlgaard</v>
       </c>
       <c r="D90" s="8" t="s">
@@ -5286,7 +4711,7 @@
         <v>334</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/jkarlgaard</v>
       </c>
     </row>
@@ -5298,7 +4723,7 @@
         <v>216</v>
       </c>
       <c r="C91" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>PatHobbsRU</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -5317,7 +4742,7 @@
         <v>335</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/PatHobbsRU</v>
       </c>
     </row>
@@ -5329,7 +4754,7 @@
         <v>217</v>
       </c>
       <c r="C92" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>jdwicker</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -5348,13 +4773,13 @@
         <v>336</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/jdwicker</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>218</v>
@@ -5382,7 +4807,7 @@
         <v>381</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/adriverhawks</v>
       </c>
     </row>
@@ -5394,7 +4819,7 @@
         <v>220</v>
       </c>
       <c r="C94" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>AD_RickHart</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -5413,7 +4838,7 @@
         <v>337</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/AD_RickHart</v>
       </c>
     </row>
@@ -5425,7 +4850,7 @@
         <v>221</v>
       </c>
       <c r="C95" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>SouthAlabamaAD</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -5444,7 +4869,7 @@
         <v>338</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/SouthAlabamaAD</v>
       </c>
     </row>
@@ -5456,7 +4881,7 @@
         <v>222</v>
       </c>
       <c r="C96" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>RayTannerSC</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -5475,7 +4900,7 @@
         <v>372</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/RayTannerSC</v>
       </c>
     </row>
@@ -5487,7 +4912,7 @@
         <v>223</v>
       </c>
       <c r="C97" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>MKellyUSF</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -5506,19 +4931,19 @@
         <v>339</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/MKellyUSF</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C98" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>jmcclain_USM</v>
       </c>
       <c r="D98" s="8" t="s">
@@ -5537,7 +4962,7 @@
         <v>340</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/jmcclain_USM</v>
       </c>
     </row>
@@ -5549,7 +4974,7 @@
         <v>225</v>
       </c>
       <c r="C99" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Stanford_AD</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -5568,7 +4993,7 @@
         <v>378</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/Stanford_AD</v>
       </c>
     </row>
@@ -5580,7 +5005,7 @@
         <v>226</v>
       </c>
       <c r="C100" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WildhackJ</v>
       </c>
       <c r="D100" s="8" t="s">
@@ -5599,7 +5024,7 @@
         <v>341</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/WildhackJ</v>
       </c>
     </row>
@@ -5611,7 +5036,7 @@
         <v>227</v>
       </c>
       <c r="C101" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Jdonati_TCU</v>
       </c>
       <c r="D101" s="8" t="s">
@@ -5630,7 +5055,7 @@
         <v>342</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/Jdonati_TCU</v>
       </c>
     </row>
@@ -5642,7 +5067,7 @@
         <v>228</v>
       </c>
       <c r="C102" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>TempleOwls_AD</v>
       </c>
       <c r="D102" s="8" t="s">
@@ -5661,7 +5086,7 @@
         <v>229</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/TempleOwls_AD</v>
       </c>
     </row>
@@ -5673,7 +5098,7 @@
         <v>230</v>
       </c>
       <c r="C103" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>AD_DannyWhite</v>
       </c>
       <c r="D103" s="8" t="s">
@@ -5692,7 +5117,7 @@
         <v>343</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/AD_DannyWhite</v>
       </c>
     </row>
@@ -5704,7 +5129,7 @@
         <v>231</v>
       </c>
       <c r="C104" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>_delconte</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -5723,7 +5148,7 @@
         <v>344</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/_delconte</v>
       </c>
     </row>
@@ -5735,7 +5160,7 @@
         <v>232</v>
       </c>
       <c r="C105" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>RossBjorkAD</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -5754,7 +5179,7 @@
         <v>345</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/RossBjorkAD</v>
       </c>
     </row>
@@ -5766,7 +5191,7 @@
         <v>233</v>
       </c>
       <c r="C106" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>DonCoryell</v>
       </c>
       <c r="D106" s="8" t="s">
@@ -5785,7 +5210,7 @@
         <v>346</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/DonCoryell</v>
       </c>
     </row>
@@ -5797,7 +5222,7 @@
         <v>234</v>
       </c>
       <c r="C107" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>kirbyhocutt</v>
       </c>
       <c r="D107" s="8" t="s">
@@ -5816,7 +5241,7 @@
         <v>347</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/kirbyhocutt</v>
       </c>
     </row>
@@ -5828,7 +5253,7 @@
         <v>235</v>
       </c>
       <c r="C108" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>BtotheBlair</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -5847,7 +5272,7 @@
         <v>348</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/BtotheBlair</v>
       </c>
     </row>
@@ -5859,7 +5284,7 @@
         <v>236</v>
       </c>
       <c r="C109" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>brentjones4</v>
       </c>
       <c r="D109" s="8" t="s">
@@ -5878,7 +5303,7 @@
         <v>349</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/brentjones4</v>
       </c>
     </row>
@@ -5890,7 +5315,7 @@
         <v>237</v>
       </c>
       <c r="C110" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Tulane_AD</v>
       </c>
       <c r="D110" s="8" t="s">
@@ -5909,7 +5334,7 @@
         <v>350</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/Tulane_AD</v>
       </c>
     </row>
@@ -5944,7 +5369,7 @@
         <v>239</v>
       </c>
       <c r="C112" s="9" t="str">
-        <f t="shared" ref="C112:C117" si="4">HYPERLINK(J112,I112)</f>
+        <f t="shared" ref="C112:C117" si="8">HYPERLINK(J112,I112)</f>
         <v>UAB_AD</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -5963,7 +5388,7 @@
         <v>351</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/UAB_AD</v>
       </c>
     </row>
@@ -5975,7 +5400,7 @@
         <v>240</v>
       </c>
       <c r="C113" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TerryMohajirAD</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -5994,7 +5419,7 @@
         <v>352</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/TerryMohajirAD</v>
       </c>
     </row>
@@ -6006,7 +5431,7 @@
         <v>241</v>
       </c>
       <c r="C114" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>MartinJarmond</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -6025,7 +5450,7 @@
         <v>353</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/MartinJarmond</v>
       </c>
     </row>
@@ -6037,7 +5462,7 @@
         <v>243</v>
       </c>
       <c r="C115" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>UMassADBamford</v>
       </c>
       <c r="D115" s="8" t="s">
@@ -6056,7 +5481,7 @@
         <v>355</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/UMassADBamford</v>
       </c>
     </row>
@@ -6068,7 +5493,7 @@
         <v>244</v>
       </c>
       <c r="C116" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>ErickHarper</v>
       </c>
       <c r="D116" s="8" t="s">
@@ -6087,7 +5512,7 @@
         <v>356</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/ErickHarper</v>
       </c>
     </row>
@@ -6099,7 +5524,7 @@
         <v>245</v>
       </c>
       <c r="C117" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>USC_mikebohn</v>
       </c>
       <c r="D117" s="8" t="s">
@@ -6118,13 +5543,13 @@
         <v>357</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/USC_mikebohn</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>247</v>
@@ -6184,7 +5609,7 @@
         <v>248</v>
       </c>
       <c r="C120" s="9" t="str">
-        <f>HYPERLINK(J120,I120)</f>
+        <f t="shared" ref="C120:C130" si="9">HYPERLINK(J120,I120)</f>
         <v>MarkHarlan_AD</v>
       </c>
       <c r="D120" s="8" t="s">
@@ -6203,7 +5628,7 @@
         <v>359</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/MarkHarlan_AD</v>
       </c>
     </row>
@@ -6215,7 +5640,7 @@
         <v>380</v>
       </c>
       <c r="C121" s="9" t="str">
-        <f>HYPERLINK(J121,I121)</f>
+        <f t="shared" si="9"/>
         <v>JerryBovee</v>
       </c>
       <c r="D121" s="8" t="s">
@@ -6237,7 +5662,7 @@
         <v>360</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/JerryBovee</v>
       </c>
     </row>
@@ -6249,7 +5674,7 @@
         <v>249</v>
       </c>
       <c r="C122" s="9" t="str">
-        <f>HYPERLINK(J122,I122)</f>
+        <f t="shared" si="9"/>
         <v>VandyAD</v>
       </c>
       <c r="D122" s="8" t="s">
@@ -6268,7 +5693,7 @@
         <v>361</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/VandyAD</v>
       </c>
     </row>
@@ -6280,7 +5705,7 @@
         <v>250</v>
       </c>
       <c r="C123" s="9" t="str">
-        <f>HYPERLINK(J123,I123)</f>
+        <f t="shared" si="9"/>
         <v>ADWilliamsUVA</v>
       </c>
       <c r="D123" s="8" t="s">
@@ -6299,7 +5724,7 @@
         <v>362</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/ADWilliamsUVA</v>
       </c>
     </row>
@@ -6311,7 +5736,7 @@
         <v>251</v>
       </c>
       <c r="C124" s="9" t="str">
-        <f>HYPERLINK(J124,I124)</f>
+        <f t="shared" si="9"/>
         <v>WhitBabcock</v>
       </c>
       <c r="D124" s="8" t="s">
@@ -6330,7 +5755,7 @@
         <v>363</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/WhitBabcock</v>
       </c>
     </row>
@@ -6342,7 +5767,7 @@
         <v>252</v>
       </c>
       <c r="C125" s="9" t="str">
-        <f>HYPERLINK(J125,I125)</f>
+        <f t="shared" si="9"/>
         <v>John_Curie</v>
       </c>
       <c r="D125" s="8" t="s">
@@ -6361,7 +5786,7 @@
         <v>369</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/John_Curie</v>
       </c>
     </row>
@@ -6373,7 +5798,7 @@
         <v>253</v>
       </c>
       <c r="C126" s="9" t="str">
-        <f>HYPERLINK(J126,I126)</f>
+        <f t="shared" si="9"/>
         <v>JenniferCohenUW</v>
       </c>
       <c r="D126" s="8" t="s">
@@ -6392,7 +5817,7 @@
         <v>364</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/JenniferCohenUW</v>
       </c>
     </row>
@@ -6404,7 +5829,7 @@
         <v>254</v>
       </c>
       <c r="C127" s="9" t="str">
-        <f>HYPERLINK(J127,I127)</f>
+        <f t="shared" si="9"/>
         <v>pat_chun</v>
       </c>
       <c r="D127" s="8" t="s">
@@ -6423,7 +5848,7 @@
         <v>365</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/pat_chun</v>
       </c>
     </row>
@@ -6435,7 +5860,7 @@
         <v>255</v>
       </c>
       <c r="C128" s="9" t="str">
-        <f>HYPERLINK(J128,I128)</f>
+        <f t="shared" si="9"/>
         <v>WVUADLyons</v>
       </c>
       <c r="D128" s="8" t="s">
@@ -6454,7 +5879,7 @@
         <v>366</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/WVUADLyons</v>
       </c>
     </row>
@@ -6466,7 +5891,7 @@
         <v>256</v>
       </c>
       <c r="C129" s="9" t="str">
-        <f>HYPERLINK(J129,I129)</f>
+        <f t="shared" si="9"/>
         <v>ToddStewartWKU</v>
       </c>
       <c r="D129" s="8" t="s">
@@ -6485,7 +5910,7 @@
         <v>367</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/ToddStewartWKU</v>
       </c>
     </row>
@@ -6497,7 +5922,7 @@
         <v>385</v>
       </c>
       <c r="C130" s="9" t="str">
-        <f>HYPERLINK(J130,I130)</f>
+        <f t="shared" si="9"/>
         <v>jrobalsop</v>
       </c>
       <c r="D130" s="8" t="s">
@@ -6519,7 +5944,7 @@
         <v>384</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>https://www.twitter.com/jrobalsop</v>
       </c>
     </row>
@@ -6573,7 +5998,7 @@
         <v>368</v>
       </c>
       <c r="J132" t="str">
-        <f t="shared" ref="J132" si="5">_xlfn.CONCAT("https://www.twitter.com/",I132)</f>
+        <f t="shared" ref="J132" si="10">_xlfn.CONCAT("https://www.twitter.com/",I132)</f>
         <v>https://www.twitter.com/TomBurman1</v>
       </c>
     </row>

--- a/ADs.xlsx
+++ b/ADs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunter Schuler\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87210922-D02F-491C-A95C-B3022B61802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19066FB-7051-4738-A8FB-F1237986A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA875E7B-8DC3-4E54-9377-FCE90FAAEA4C}"/>
   </bookViews>
@@ -1400,7 +1400,301 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1973,8 +2267,8 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6004,119 +6298,27 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{1DEBB5B0-CD8C-40E0-BB68-C1CB51FCAC79}"/>
-  <conditionalFormatting sqref="A118:G118">
-    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
-      <formula>$H250="INTERIM"</formula>
+  <conditionalFormatting sqref="A2:G132">
+    <cfRule type="expression" dxfId="36" priority="201" stopIfTrue="1">
+      <formula>$H2="INTERIM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$D118="Yes"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
-      <formula>AND($E118="Yes",$D118="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
-      <formula>AND($F118="Yes",$E118="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="37" stopIfTrue="1">
-      <formula>AND($G118="Yes",$F118="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="38">
-      <formula>$C250="NO"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="39">
-      <formula>$G118="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119:G119 A34:G114 A28:G31">
-    <cfRule type="expression" dxfId="27" priority="103" stopIfTrue="1">
-      <formula>$H158="INTERIM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="104">
-      <formula>$D28="Yes"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="105" stopIfTrue="1">
-      <formula>AND($E28="Yes",$D28="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="106" stopIfTrue="1">
-      <formula>AND($F28="Yes",$E28="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="107" stopIfTrue="1">
-      <formula>AND($G28="Yes",$F28="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="108">
-      <formula>$C158="NO"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="109">
-      <formula>$G28="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:G132 A32:G32 A115:G117 A2:G26">
-    <cfRule type="expression" dxfId="20" priority="124" stopIfTrue="1">
-      <formula>$H133="INTERIM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="125">
+    <cfRule type="expression" dxfId="41" priority="209">
       <formula>$D2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="210" stopIfTrue="1">
       <formula>AND($E2="Yes",$D2="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="211" stopIfTrue="1">
       <formula>AND($F2="Yes",$E2="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="212" stopIfTrue="1">
       <formula>AND($G2="Yes",$F2="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="129">
-      <formula>$C133="NO"</formula>
+    <cfRule type="expression" dxfId="35" priority="213">
+      <formula>$C2="NO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="130">
+    <cfRule type="expression" dxfId="37" priority="214">
       <formula>$G2="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:G33">
-    <cfRule type="expression" dxfId="13" priority="201" stopIfTrue="1">
-      <formula>$H162="INTERIM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="202">
-      <formula>$D33="Yes"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="203" stopIfTrue="1">
-      <formula>AND($E33="Yes",$D33="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="204" stopIfTrue="1">
-      <formula>AND($F33="Yes",$E33="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="205" stopIfTrue="1">
-      <formula>AND($G33="Yes",$F33="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="206">
-      <formula>$C162="NO"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="207">
-      <formula>$G33="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:G27">
-    <cfRule type="expression" dxfId="6" priority="208" stopIfTrue="1">
-      <formula>$H245="INTERIM"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="209">
-      <formula>$D27="Yes"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="210" stopIfTrue="1">
-      <formula>AND($E27="Yes",$D27="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="211" stopIfTrue="1">
-      <formula>AND($F27="Yes",$E27="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="212" stopIfTrue="1">
-      <formula>AND($G27="Yes",$F27="No")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="213">
-      <formula>$C245="NO"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="214">
-      <formula>$G27="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ADs.xlsx
+++ b/ADs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunter Schuler\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19066FB-7051-4738-A8FB-F1237986A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7851049-D34D-4DCB-871B-8610801F7B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA875E7B-8DC3-4E54-9377-FCE90FAAEA4C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{BA875E7B-8DC3-4E54-9377-FCE90FAAEA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="ADs" sheetId="1" r:id="rId1"/>
@@ -533,9 +533,6 @@
     <t>Charlie Cobb</t>
   </si>
   <si>
-    <t>Todd Stansbury</t>
-  </si>
-  <si>
     <t>David Matlin</t>
   </si>
   <si>
@@ -914,9 +911,6 @@
     <t>CCobbGaStateAD</t>
   </si>
   <si>
-    <t>GTToddStansbury</t>
-  </si>
-  <si>
     <t>DavidAKMatlin</t>
   </si>
   <si>
@@ -1224,6 +1218,12 @@
   </si>
   <si>
     <t>Florida International</t>
+  </si>
+  <si>
+    <t>J Batt</t>
+  </si>
+  <si>
+    <t>GTBattman</t>
   </si>
 </sst>
 </file>
@@ -1400,497 +1400,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFD5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -2267,23 +1777,23 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="47.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.41796875" customWidth="1"/>
+    <col min="2" max="2" width="28.26171875" customWidth="1"/>
+    <col min="3" max="3" width="28.83984375" customWidth="1"/>
+    <col min="4" max="7" width="21.15625" customWidth="1"/>
+    <col min="8" max="8" width="26.15625" customWidth="1"/>
+    <col min="9" max="9" width="22.26171875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.578125" customWidth="1"/>
+    <col min="11" max="11" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
@@ -2297,22 +1807,22 @@
         <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2336,14 +1846,14 @@
         <v>126</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J2" t="str">
         <f>_xlfn.CONCAT("https://www.twitter.com/",I2)</f>
         <v>https://www.twitter.com/nate_pine</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2367,14 +1877,14 @@
         <v>126</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J67" si="1">_xlfn.CONCAT("https://www.twitter.com/",I3)</f>
         <v>https://www.twitter.com/UAkron_AD</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2398,14 +1908,14 @@
         <v>126</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Greg_Byrne</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -2429,14 +1939,14 @@
         <v>126</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/DougGillin</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -2460,14 +1970,14 @@
         <v>126</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Dave_Heeke</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2491,14 +2001,14 @@
         <v>126</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/SunDevilRay23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2522,14 +2032,14 @@
         <v>126</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/HunterYurachek</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2553,14 +2063,14 @@
         <v>126</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/JeffPurinton</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -2584,19 +2094,19 @@
         <v>126</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Buddie52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2615,14 +2125,14 @@
         <v>126</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/JohnCohenAD</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -2648,7 +2158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2672,14 +2182,14 @@
         <v>144</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/BUMackRhoades</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -2703,14 +2213,14 @@
         <v>126</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/JeramiahDickey</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -2734,19 +2244,19 @@
         <v>126</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/BCBlakeJames</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2768,14 +2278,14 @@
         <v>139</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/StacyKosciak</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -2799,14 +2309,14 @@
         <v>126</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Alnutt41</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -2830,14 +2340,14 @@
         <v>126</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/TomHolmoe</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -2861,14 +2371,14 @@
         <v>126</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/ADCalBears</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2892,14 +2402,14 @@
         <v>126</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/AmyFolan</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -2923,14 +2433,14 @@
         <v>126</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/rmikehill</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -2954,14 +2464,14 @@
         <v>126</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Cunningham_UC</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
@@ -2985,14 +2495,14 @@
         <v>126</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/GrahamNeff</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -3015,7 +2525,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
@@ -3039,14 +2549,14 @@
         <v>126</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/RickGeorgeCU</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
@@ -3070,19 +2580,19 @@
         <v>126</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/JoeParkerAD</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="9" t="str">
         <f>HYPERLINK(J27,I27)</f>
@@ -3101,14 +2611,14 @@
         <v>126</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J27" t="str">
         <f>_xlfn.CONCAT("https://www.twitter.com/",I27)</f>
         <v>https://www.twitter.com/UConnHuskyAD</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -3132,14 +2642,14 @@
         <v>126</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/ninaking22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -3162,7 +2672,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -3186,14 +2696,14 @@
         <v>126</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/scottrwetherbee</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -3217,14 +2727,14 @@
         <v>126</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Brian_E_White_</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -3248,16 +2758,16 @@
         <v>126</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/ScottStricklin</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>157</v>
@@ -3279,14 +2789,14 @@
         <v>126</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT("https://www.twitter.com/",I33)</f>
         <v>https://www.twitter.com/ScottCarrAD</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
@@ -3310,14 +2820,14 @@
         <v>126</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/SeminoleAlford</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
@@ -3341,14 +2851,14 @@
         <v>126</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/FresnoState_AD</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
@@ -3372,14 +2882,14 @@
         <v>126</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Brooks_UGA</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
@@ -3403,14 +2913,14 @@
         <v>126</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/JaredBenko</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>41</v>
       </c>
@@ -3434,29 +2944,29 @@
         <v>126</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/CCobbGaStateAD</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>164</v>
+        <v>393</v>
       </c>
       <c r="C39" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>GTToddStansbury</v>
+        <v>GTBattman</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>126</v>
@@ -3465,19 +2975,19 @@
         <v>126</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>291</v>
+        <v>394</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.twitter.com/GTToddStansbury</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>https://www.twitter.com/GTBattman</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3496,19 +3006,19 @@
         <v>126</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/DavidAKMatlin</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3527,19 +3037,19 @@
         <v>126</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Cpezman</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3558,19 +3068,19 @@
         <v>126</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/IlliniAD</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3589,19 +3099,19 @@
         <v>144</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/ScottDolson</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C44" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3620,22 +3130,22 @@
         <v>144</v>
       </c>
       <c r="H44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/GaryBarta</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3654,19 +3164,19 @@
         <v>126</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/IASTATEAD</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3685,19 +3195,19 @@
         <v>126</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/BourneJeff</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3716,19 +3226,19 @@
         <v>126</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/tgoff11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3747,19 +3257,19 @@
         <v>126</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/KSTATEADGT</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3778,19 +3288,19 @@
         <v>126</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/RandaleRichmond</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C50" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3809,19 +3319,19 @@
         <v>126</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/UKMitchBarnhart</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3840,19 +3350,19 @@
         <v>126</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Ian_McCaw1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3871,19 +3381,19 @@
         <v>126</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/MaggardB</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>144</v>
@@ -3904,12 +3414,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" s="9" t="str">
         <f>HYPERLINK(J54,I54)</f>
@@ -3928,19 +3438,19 @@
         <v>126</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/EWOOD_AD</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C55" s="9" t="str">
         <f>HYPERLINK(J55,I55)</f>
@@ -3959,19 +3469,19 @@
         <v>126</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/joshheird</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>144</v>
@@ -3989,12 +3499,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C57" s="9" t="str">
         <f t="shared" ref="C57:C64" si="4">HYPERLINK(J57,I57)</f>
@@ -4013,19 +3523,19 @@
         <v>126</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/TheHerdAD</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C58" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4044,19 +3554,19 @@
         <v>126</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/Evans_TerpsAD</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C59" s="18" t="str">
         <f t="shared" si="4"/>
@@ -4075,22 +3585,22 @@
         <v>144</v>
       </c>
       <c r="H59" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/LairdVeatch</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4109,19 +3619,19 @@
         <v>126</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/DanRadakovich</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4140,19 +3650,19 @@
         <v>126</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/MiamiOH_Dsayler</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C62" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4171,19 +3681,19 @@
         <v>144</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/WardeManuel</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C63" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4202,19 +3712,19 @@
         <v>126</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/AlanHaller</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4233,19 +3743,19 @@
         <v>126</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/ChrisMassaroAD</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>144</v>
@@ -4263,12 +3773,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C66" s="9" t="str">
         <f>HYPERLINK(J66,I66)</f>
@@ -4290,19 +3800,19 @@
         <v>139</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/MSUcompliance</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C67" s="9" t="str">
         <f>HYPERLINK(J67,I67)</f>
@@ -4321,19 +3831,19 @@
         <v>126</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" si="1"/>
         <v>https://www.twitter.com/DRFrancois1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>144</v>
@@ -4351,12 +3861,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" ref="C69:C82" si="5">HYPERLINK(J69,I69)</f>
@@ -4375,19 +3885,19 @@
         <v>126</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" ref="J69:J130" si="6">_xlfn.CONCAT("https://www.twitter.com/",I69)</f>
         <v>https://www.twitter.com/BooCorrigan</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4406,19 +3916,19 @@
         <v>126</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/TrevAlberts</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4437,19 +3947,19 @@
         <v>126</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/Stephanie_Rempe</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4468,19 +3978,19 @@
         <v>126</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/EddieNunezAD</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4499,19 +4009,19 @@
         <v>126</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/MarioMocciaNMSU</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4530,19 +4040,19 @@
         <v>126</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/BubbaUNC</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4561,19 +4071,19 @@
         <v>126</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/wrenbaker</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4592,19 +4102,19 @@
         <v>126</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/SeanTFrazier</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4623,19 +4133,19 @@
         <v>126</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/DrDerrickGragg</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4654,19 +4164,19 @@
         <v>126</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/NotreDameAD</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C79" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4685,19 +4195,19 @@
         <v>126</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/juliecromerOHIO</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C80" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4716,19 +4226,19 @@
         <v>126</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/OSU_AD</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4747,19 +4257,19 @@
         <v>126</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/soonerad</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82" s="9" t="str">
         <f t="shared" si="5"/>
@@ -4778,19 +4288,19 @@
         <v>126</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/ChadWeiberg</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>144</v>
@@ -4808,12 +4318,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C84" s="9" t="str">
         <f>HYPERLINK(J84,I84)</f>
@@ -4832,19 +4342,19 @@
         <v>126</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/KeithCarterOM</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>144</v>
@@ -4862,12 +4372,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" s="9" t="str">
         <f>HYPERLINK(J86,I86)</f>
@@ -4886,19 +4396,19 @@
         <v>126</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/BeaverAD</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>144</v>
@@ -4916,12 +4426,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C88" s="9" t="str">
         <f t="shared" ref="C88:C110" si="7">HYPERLINK(J88,I88)</f>
@@ -4940,19 +4450,19 @@
         <v>126</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/Pitt_LykeAD</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C89" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4971,19 +4481,19 @@
         <v>144</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/MikeBobinski</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C90" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5002,19 +4512,19 @@
         <v>126</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/jkarlgaard</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C91" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5033,19 +4543,19 @@
         <v>126</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/PatHobbsRU</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5064,19 +4574,19 @@
         <v>126</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/jdwicker</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="9" t="str">
         <f>HYPERLINK(J93,I93)</f>
@@ -5095,22 +4605,22 @@
         <v>144</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/adriverhawks</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C94" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5129,19 +4639,19 @@
         <v>126</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/AD_RickHart</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C95" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5160,19 +4670,19 @@
         <v>126</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/SouthAlabamaAD</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C96" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5191,19 +4701,19 @@
         <v>126</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/RayTannerSC</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C97" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5222,19 +4732,19 @@
         <v>126</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/MKellyUSF</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C98" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5253,19 +4763,19 @@
         <v>126</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/jmcclain_USM</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C99" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5284,19 +4794,19 @@
         <v>126</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/Stanford_AD</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C100" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5315,19 +4825,19 @@
         <v>126</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/WildhackJ</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C101" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5346,19 +4856,19 @@
         <v>126</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/Jdonati_TCU</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C102" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5377,19 +4887,19 @@
         <v>126</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/TempleOwls_AD</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C103" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5408,19 +4918,19 @@
         <v>126</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/AD_DannyWhite</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C104" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5439,19 +4949,19 @@
         <v>126</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/_delconte</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C105" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5470,19 +4980,19 @@
         <v>126</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/RossBjorkAD</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C106" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5501,19 +5011,19 @@
         <v>144</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J106" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/DonCoryell</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C107" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5532,19 +5042,19 @@
         <v>126</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/kirbyhocutt</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C108" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5563,19 +5073,19 @@
         <v>126</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J108" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/BtotheBlair</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C109" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5594,19 +5104,19 @@
         <v>126</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J109" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/brentjones4</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C110" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5625,19 +5135,19 @@
         <v>126</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J110" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/Tulane_AD</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>144</v>
@@ -5655,12 +5165,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C112" s="9" t="str">
         <f t="shared" ref="C112:C117" si="8">HYPERLINK(J112,I112)</f>
@@ -5679,19 +5189,19 @@
         <v>126</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J112" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/UAB_AD</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C113" s="9" t="str">
         <f t="shared" si="8"/>
@@ -5710,19 +5220,19 @@
         <v>126</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J113" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/TerryMohajirAD</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C114" s="9" t="str">
         <f t="shared" si="8"/>
@@ -5741,19 +5251,19 @@
         <v>126</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J114" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/MartinJarmond</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C115" s="9" t="str">
         <f t="shared" si="8"/>
@@ -5772,19 +5282,19 @@
         <v>126</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J115" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/UMassADBamford</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C116" s="9" t="str">
         <f t="shared" si="8"/>
@@ -5803,19 +5313,19 @@
         <v>126</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J116" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/ErickHarper</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C117" s="9" t="str">
         <f t="shared" si="8"/>
@@ -5834,19 +5344,19 @@
         <v>126</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J117" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/USC_mikebohn</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C118" s="9" t="str">
         <f>HYPERLINK(J118,I118)</f>
@@ -5865,19 +5375,19 @@
         <v>126</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J118" t="str">
         <f>_xlfn.CONCAT("https://www.twitter.com/",I118)</f>
         <v>https://www.twitter.com/LisaUTSA</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>144</v>
@@ -5895,12 +5405,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C120" s="9" t="str">
         <f t="shared" ref="C120:C130" si="9">HYPERLINK(J120,I120)</f>
@@ -5919,19 +5429,19 @@
         <v>126</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J120" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/MarkHarlan_AD</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C121" s="9" t="str">
         <f t="shared" si="9"/>
@@ -5953,19 +5463,19 @@
         <v>139</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J121" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/JerryBovee</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C122" s="9" t="str">
         <f t="shared" si="9"/>
@@ -5984,19 +5494,19 @@
         <v>126</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J122" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/VandyAD</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C123" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6015,19 +5525,19 @@
         <v>126</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J123" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/ADWilliamsUVA</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C124" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6046,19 +5556,19 @@
         <v>126</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/WhitBabcock</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C125" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6077,19 +5587,19 @@
         <v>126</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/John_Curie</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C126" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6108,19 +5618,19 @@
         <v>126</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J126" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/JenniferCohenUW</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C127" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6139,19 +5649,19 @@
         <v>126</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J127" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/pat_chun</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C128" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6170,19 +5680,19 @@
         <v>126</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J128" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/WVUADLyons</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C129" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6201,19 +5711,19 @@
         <v>126</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J129" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/ToddStewartWKU</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C130" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6235,19 +5745,19 @@
         <v>139</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J130" t="str">
         <f t="shared" si="6"/>
         <v>https://www.twitter.com/jrobalsop</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>144</v>
@@ -6265,12 +5775,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C132" s="14" t="str">
         <f>HYPERLINK(J132,I132)</f>
@@ -6289,7 +5799,7 @@
         <v>126</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J132" t="str">
         <f t="shared" ref="J132" si="10">_xlfn.CONCAT("https://www.twitter.com/",I132)</f>
@@ -6299,25 +5809,25 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{1DEBB5B0-CD8C-40E0-BB68-C1CB51FCAC79}"/>
   <conditionalFormatting sqref="A2:G132">
-    <cfRule type="expression" dxfId="36" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="201" stopIfTrue="1">
       <formula>$H2="INTERIM"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="209">
+    <cfRule type="expression" dxfId="5" priority="209">
       <formula>$D2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="210" stopIfTrue="1">
       <formula>AND($E2="Yes",$D2="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="211" stopIfTrue="1">
       <formula>AND($F2="Yes",$E2="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="212" stopIfTrue="1">
       <formula>AND($G2="Yes",$F2="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="213">
+    <cfRule type="expression" dxfId="1" priority="213">
       <formula>$C2="NO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="214">
+    <cfRule type="expression" dxfId="0" priority="214">
       <formula>$G2="NO"</formula>
     </cfRule>
   </conditionalFormatting>
